--- a/spliced/struggle/2023-04-06_18-13-50/data_selected.xlsx
+++ b/spliced/struggle/2023-04-06_18-13-50/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.03573226928710932</v>
+        <v>0.3229818344116211</v>
       </c>
       <c r="D2" t="n">
-        <v>1.091637820005417</v>
+        <v>0.6911778450012207</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02871005609631534</v>
+        <v>0.0410229265689849</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0280998013913631</v>
+        <v>-0.0050396383740007</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0065668015740811</v>
+        <v>-0.0062613687478005</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.2249511331319809</v>
+        <v>-0.0682641938328743</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.3065404891967778</v>
+        <v>0.03573226928710932</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2820112705230735</v>
+        <v>1.091637820005417</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5336970239877709</v>
+        <v>0.02871005609631534</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0161879286170005</v>
+        <v>0.0280998013913631</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1918116807937622</v>
+        <v>0.0065668015740811</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1281289905309677</v>
+        <v>-0.2249511331319809</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.235683798789977</v>
+        <v>-0.3065404891967778</v>
       </c>
       <c r="D4" t="n">
-        <v>1.699176728725431</v>
+        <v>-0.2820112705230735</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.264458738267415</v>
+        <v>0.5336970239877709</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.661719799041748</v>
+        <v>0.0161879286170005</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.015994548797607</v>
+        <v>0.1918116807937622</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2399173229932785</v>
+        <v>0.1281289905309677</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.863949537277225</v>
+        <v>1.235683798789977</v>
       </c>
       <c r="D5" t="n">
-        <v>2.962162733078003</v>
+        <v>1.699176728725431</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.810576677322413</v>
+        <v>-9.264458738267415</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.712574303150177</v>
+        <v>-0.661719799041748</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.057533264160156</v>
+        <v>-3.015994548797607</v>
       </c>
       <c r="H5" t="n">
-        <v>1.317941784858704</v>
+        <v>0.2399173229932785</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.016938030719759</v>
+        <v>0.863949537277225</v>
       </c>
       <c r="D6" t="n">
-        <v>1.812374681234356</v>
+        <v>2.962162733078003</v>
       </c>
       <c r="E6" t="n">
-        <v>3.528335273265831</v>
+        <v>-4.810576677322413</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0276416521519422</v>
+        <v>-0.712574303150177</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.573588848114014</v>
+        <v>-3.057533264160156</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1765400618314743</v>
+        <v>1.317941784858704</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.448214650154112</v>
+        <v>-1.016938030719759</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6974614262580892</v>
+        <v>1.812374681234356</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2024929523468025</v>
+        <v>3.528335273265831</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.30925053358078</v>
+        <v>-0.0276416521519422</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.087340116500854</v>
+        <v>-1.573588848114014</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5018258094787598</v>
+        <v>0.1765400618314743</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.741048276424405</v>
+        <v>-1.448214650154112</v>
       </c>
       <c r="D8" t="n">
-        <v>2.403452962636946</v>
+        <v>0.6974614262580892</v>
       </c>
       <c r="E8" t="n">
-        <v>1.657237887382503</v>
+        <v>0.2024929523468025</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5064072608947754</v>
+        <v>-0.30925053358078</v>
       </c>
       <c r="G8" t="n">
-        <v>1.254717230796814</v>
+        <v>-1.087340116500854</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.3903428912162781</v>
+        <v>0.5018258094787598</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.059070587158203</v>
+        <v>-0.741048276424405</v>
       </c>
       <c r="D9" t="n">
-        <v>4.932431697845459</v>
+        <v>2.403452962636946</v>
       </c>
       <c r="E9" t="n">
-        <v>8.35069465637207</v>
+        <v>1.657237887382503</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8715519905090332</v>
+        <v>0.5064072608947754</v>
       </c>
       <c r="G9" t="n">
-        <v>7.492720603942871</v>
+        <v>1.254717230796814</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.2434297949075698</v>
+        <v>-0.3903428912162781</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-14.23740649223328</v>
+        <v>-5.059070587158203</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.685086905956268</v>
+        <v>4.932431697845459</v>
       </c>
       <c r="E10" t="n">
-        <v>-11.66821980476379</v>
+        <v>8.35069465637207</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1846340149641037</v>
+        <v>0.8715519905090332</v>
       </c>
       <c r="G10" t="n">
-        <v>3.088076591491699</v>
+        <v>7.492720603942871</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.3998112976551056</v>
+        <v>-0.2434297949075698</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.523534297943144</v>
+        <v>-14.23740649223328</v>
       </c>
       <c r="D11" t="n">
-        <v>1.658495068550122</v>
+        <v>-4.685086905956268</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.12692010402678</v>
+        <v>-11.66821980476379</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9885326623916626</v>
+        <v>0.1846340149641037</v>
       </c>
       <c r="G11" t="n">
-        <v>0.327729195356369</v>
+        <v>3.088076591491699</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7793113589286804</v>
+        <v>-0.3998112976551056</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2367224693298144</v>
+        <v>1.523534297943144</v>
       </c>
       <c r="D12" t="n">
-        <v>2.003786832094186</v>
+        <v>1.658495068550122</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6863620281219598</v>
+        <v>-6.12692010402678</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1824959963560104</v>
+        <v>0.9885326623916626</v>
       </c>
       <c r="G12" t="n">
-        <v>1.06657075881958</v>
+        <v>0.327729195356369</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.535881519317627</v>
+        <v>0.7793113589286804</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.165284633636483</v>
+        <v>0.2367224693298144</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6432097852230073</v>
+        <v>2.003786832094186</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.792131662368751</v>
+        <v>0.6863620281219598</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3689626157283783</v>
+        <v>0.1824959963560104</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3917173445224762</v>
+        <v>1.06657075881958</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0592539273202419</v>
+        <v>-0.535881519317627</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-2.553572356700887</v>
+        <v>-2.165284633636483</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2867545410990673</v>
+        <v>0.6432097852230073</v>
       </c>
       <c r="E14" t="n">
-        <v>-8.648992538452138</v>
+        <v>-1.792131662368751</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1073595657944679</v>
+        <v>-0.3689626157283783</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.686697483062744</v>
+        <v>-0.3917173445224762</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5876523852348328</v>
+        <v>0.0592539273202419</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-4.401553869247437</v>
+        <v>-2.553572356700887</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.257887557148934</v>
+        <v>-0.2867545410990673</v>
       </c>
       <c r="E15" t="n">
-        <v>-6.942715406417845</v>
+        <v>-8.648992538452138</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.328340083360672</v>
+        <v>0.1073595657944679</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.181830883026123</v>
+        <v>-5.686697483062744</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4459316432476043</v>
+        <v>0.5876523852348328</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.4359638094902062</v>
+        <v>-4.401553869247437</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4895955845713609</v>
+        <v>-1.257887557148934</v>
       </c>
       <c r="E16" t="n">
-        <v>7.27920758724213</v>
+        <v>-6.942715406417845</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5354233980178833</v>
+        <v>-0.328340083360672</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.544559240341187</v>
+        <v>-4.181830883026123</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.09666942805051799</v>
+        <v>0.4459316432476043</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-2.941592216491699</v>
+        <v>0.4359638094902062</v>
       </c>
       <c r="D17" t="n">
-        <v>1.415750741958618</v>
+        <v>0.4895955845713609</v>
       </c>
       <c r="E17" t="n">
-        <v>2.028909683227539</v>
+        <v>7.27920758724213</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1430951803922653</v>
+        <v>0.5354233980178833</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.349706768989563</v>
+        <v>-2.544559240341187</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0325285755097866</v>
+        <v>-0.09666942805051799</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-2.841609954833984</v>
+        <v>-2.941592216491699</v>
       </c>
       <c r="D18" t="n">
-        <v>1.175870314240456</v>
+        <v>1.415750741958618</v>
       </c>
       <c r="E18" t="n">
-        <v>2.039763569831848</v>
+        <v>2.028909683227539</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1991420686244964</v>
+        <v>0.1430951803922653</v>
       </c>
       <c r="G18" t="n">
-        <v>2.337323188781738</v>
+        <v>-1.349706768989563</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0629191175103187</v>
+        <v>0.0325285755097866</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-8.905681610107422</v>
+        <v>-2.841609954833984</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9636736810207367</v>
+        <v>1.175870314240456</v>
       </c>
       <c r="E19" t="n">
-        <v>4.923756122589111</v>
+        <v>2.039763569831848</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6780604124069214</v>
+        <v>0.1991420686244964</v>
       </c>
       <c r="G19" t="n">
-        <v>4.859890937805176</v>
+        <v>2.337323188781738</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.5485569834709167</v>
+        <v>-0.0629191175103187</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-5.471291422843918</v>
+        <v>-8.905681610107422</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0547291114926366</v>
+        <v>0.9636736810207367</v>
       </c>
       <c r="E20" t="n">
-        <v>1.600609958171833</v>
+        <v>4.923756122589111</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2672535479068756</v>
+        <v>-0.6780604124069214</v>
       </c>
       <c r="G20" t="n">
-        <v>4.172514915466309</v>
+        <v>4.859890937805176</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.6389650702476501</v>
+        <v>-0.5485569834709167</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-5.471291422843918</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.0547291114926366</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.600609958171833</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2672535479068756</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.172514915466309</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.6389650702476501</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>1.258475780487077</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>-0.083541259169576</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E22" t="n">
         <v>-5.154085397720357</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F22" t="n">
         <v>0.5691736936569214</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G22" t="n">
         <v>0.9764680862426758</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>0.5934556126594543</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9749262332916433</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.300361778587099</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-6.267426431179062</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.4335615932941437</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1406517177820205</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.8185594081878662</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.844243764877326</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.833226948976521</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.409952521324157</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.09498954564332961</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.7519751191139221</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.1093448773026466</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4797788858413697</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.523662269115448</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1.702465817332268</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1846340149641037</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-1.312596678733826</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0687223374843597</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.155098915100098</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.092013478279114</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.727226853370667</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.6478226184844971</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.9091202020645142</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.1838704347610473</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.098365545272828</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.6193101108074199</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1845241859555233</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.1064432710409164</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.09178250283002851</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0652098655700683</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.8518145084381094</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.03355145454406605</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7549576908350003</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.042302418500185</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3572034537792206</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1937969923019409</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.405293345451355</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8384262472391129</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.3231545425951481</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.2768746614456177</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.2338086664676666</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.1817324161529541</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2438197135925255</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.4860433936119046</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.09267929568886754</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0734565481543541</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1968513280153274</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.1055269688367843</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.07322704792022328</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1344193816185026</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.148086081258953</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.1507309973239898</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.0175623763352632</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.08170322328805921</v>
       </c>
     </row>
   </sheetData>
